--- a/实验室/数据合集/QuatE改.xlsx
+++ b/实验室/数据合集/QuatE改.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实验室论文\实验室\数据合集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757F2C79-71CD-4CE7-953B-FA8B42341595}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A028025-3953-436C-B915-30E29EC386BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="1200" windowWidth="20265" windowHeight="13080" activeTab="1" xr2:uid="{AB23B43C-DD56-4081-B26D-8F17546BFFD7}"/>
+    <workbookView xWindow="1500" yWindow="870" windowWidth="20265" windowHeight="13080" activeTab="1" xr2:uid="{AB23B43C-DD56-4081-B26D-8F17546BFFD7}"/>
   </bookViews>
   <sheets>
     <sheet name="FB15k-237" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="45">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -83,14 +83,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>类型约束</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>有</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>OctonionE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -99,10 +91,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>有</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>QuatRE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -173,6 +161,46 @@
   </si>
   <si>
     <t>g4(r,t)(h,r)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>g4(t,r)(r,h)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>072 g1(t,r)(r,h)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3090 g1(t,r)(r,h)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RatE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RatE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>((Vh*Vr,1)*(Vr*Vt,1))x(Vt*Vr,2)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果很差</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>退化至QuatE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>((Vh*Vr,1)*(Vr*Vh,1))x(Vt*Vr,2)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序中断结果未知，验证集hit@10=0.21</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -291,7 +319,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -314,6 +342,9 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -632,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBEC78B-E61F-4E33-A449-85FFE18756F9}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -643,7 +674,7 @@
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="25.5" customHeight="1">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="25.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,21 +700,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4">
         <v>87</v>
@@ -700,9 +728,8 @@
       <c r="H2" s="3">
         <v>55</v>
       </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>20210901</v>
       </c>
@@ -710,7 +737,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>100.18467699999999</v>
@@ -727,9 +754,8 @@
       <c r="H3" s="3">
         <v>53.996899999999997</v>
       </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -751,14 +777,13 @@
       <c r="H4" s="8">
         <v>55.9</v>
       </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:10">
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4">
         <v>88</v>
@@ -775,14 +800,13 @@
       <c r="H5" s="9">
         <v>56.3</v>
       </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4">
         <v>90</v>
@@ -799,9 +823,8 @@
       <c r="H6" s="9">
         <v>56.3</v>
       </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>20210812</v>
       </c>
@@ -827,13 +850,10 @@
         <v>55.851199999999999</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>20210902</v>
       </c>
@@ -841,7 +861,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" s="4">
         <v>88.377601999999996</v>
@@ -859,14 +879,34 @@
         <v>56.361800000000002</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="9" spans="1:10">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2">
+        <v>172</v>
+      </c>
+      <c r="E9">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="F9">
+        <v>26.1</v>
+      </c>
+      <c r="G9">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="H9">
+        <v>54.1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:K16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:J16">
     <sortCondition descending="1" ref="H1"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -876,21 +916,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED581C6D-DD0E-45F8-833A-F098410ECFD2}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.25" customWidth="1"/>
-    <col min="11" max="11" width="37.625" customWidth="1"/>
+    <col min="9" max="9" width="47.25" customWidth="1"/>
+    <col min="10" max="10" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="25.5" customHeight="1">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="25.5" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -916,21 +956,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>2314</v>
@@ -948,12 +985,12 @@
         <v>58.2</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:10">
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="5">
         <v>2098</v>
@@ -971,7 +1008,7 @@
         <v>58.2</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -994,12 +1031,12 @@
         <v>58.4</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:10">
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4">
         <v>1986</v>
@@ -1017,12 +1054,12 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4">
         <v>1977</v>
@@ -1040,266 +1077,233 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
+    <row r="7" spans="1:10">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7">
+        <v>2860</v>
+      </c>
+      <c r="E7">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="F7">
+        <v>44.1</v>
+      </c>
+      <c r="G7">
+        <v>50.6</v>
+      </c>
+      <c r="H7" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
         <v>20210811</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>2342.1821289999998</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>0.49206899999999998</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>44.081000000000003</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G8" s="5">
         <v>51.531599999999997</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H8" s="5">
         <v>58.535400000000003</v>
       </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="I8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
+    <row r="9" spans="1:10">
+      <c r="A9">
         <v>20210830</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>2776.564453</v>
+      </c>
+      <c r="E9">
+        <v>0.48409200000000002</v>
+      </c>
+      <c r="F9" s="5">
+        <v>44.256500000000003</v>
+      </c>
+      <c r="G9">
+        <v>50.191499999999998</v>
+      </c>
+      <c r="H9">
+        <v>56.493299999999998</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>20210901</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2016.0157469999999</v>
+      </c>
+      <c r="E10">
+        <v>0.48890899999999998</v>
+      </c>
+      <c r="F10">
+        <v>43.873600000000003</v>
+      </c>
+      <c r="G10">
+        <v>50.989199999999997</v>
+      </c>
+      <c r="H10">
+        <v>58.359900000000003</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>20210902</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D8">
-        <v>2776.564453</v>
-      </c>
-      <c r="E8">
-        <v>0.48409200000000002</v>
-      </c>
-      <c r="F8" s="5">
-        <v>44.256500000000003</v>
-      </c>
-      <c r="G8">
-        <v>50.191499999999998</v>
-      </c>
-      <c r="H8">
-        <v>56.493299999999998</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
-        <v>20210901</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D11">
+        <v>2180.8237300000001</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.49307400000000001</v>
+      </c>
+      <c r="F11" s="4">
+        <v>44.479900000000001</v>
+      </c>
+      <c r="G11">
+        <v>51.324199999999998</v>
+      </c>
+      <c r="H11">
+        <v>58.232300000000002</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>20210909</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>2122.335693</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.493336</v>
+      </c>
+      <c r="F12" s="5">
+        <v>44.288499999999999</v>
+      </c>
+      <c r="G12" s="5">
+        <v>51.515599999999999</v>
+      </c>
+      <c r="H12" s="5">
+        <v>58.567300000000003</v>
+      </c>
+      <c r="I12" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5">
-        <v>2016.0157469999999</v>
-      </c>
-      <c r="E9">
-        <v>0.48890899999999998</v>
-      </c>
-      <c r="F9">
-        <v>43.873600000000003</v>
-      </c>
-      <c r="G9">
-        <v>50.989199999999997</v>
-      </c>
-      <c r="H9">
-        <v>58.359900000000003</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
-        <v>20210902</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>2180.8237300000001</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.49307400000000001</v>
-      </c>
-      <c r="F10" s="4">
-        <v>44.479900000000001</v>
-      </c>
-      <c r="G10">
-        <v>51.324199999999998</v>
-      </c>
-      <c r="H10">
-        <v>58.232300000000002</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>20210904</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2064.1088869999999</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.49429800000000002</v>
+      </c>
+      <c r="F13">
+        <v>44.081000000000003</v>
+      </c>
+      <c r="G13" s="4">
+        <v>51.850700000000003</v>
+      </c>
+      <c r="H13" s="4">
+        <v>59.1417</v>
+      </c>
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
         <v>20210909</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2054.8454590000001</v>
+      </c>
+      <c r="E14">
+        <v>0.49188199999999999</v>
+      </c>
+      <c r="F14">
+        <v>44.065100000000001</v>
+      </c>
+      <c r="G14">
+        <v>51.467799999999997</v>
+      </c>
+      <c r="H14">
+        <v>58.439700000000002</v>
+      </c>
+      <c r="I14" t="s">
         <v>22</v>
       </c>
-      <c r="D11">
-        <v>2122.335693</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.493336</v>
-      </c>
-      <c r="F11" s="5">
-        <v>44.288499999999999</v>
-      </c>
-      <c r="G11" s="5">
-        <v>51.515599999999999</v>
-      </c>
-      <c r="H11" s="5">
-        <v>58.567300000000003</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
-        <v>20210904</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2064.1088869999999</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.49429800000000002</v>
-      </c>
-      <c r="F12">
-        <v>44.081000000000003</v>
-      </c>
-      <c r="G12" s="4">
-        <v>51.850700000000003</v>
-      </c>
-      <c r="H12" s="4">
-        <v>59.1417</v>
-      </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13">
-        <v>20210909</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2054.8454590000001</v>
-      </c>
-      <c r="E13">
-        <v>0.49188199999999999</v>
-      </c>
-      <c r="F13">
-        <v>44.065100000000001</v>
-      </c>
-      <c r="G13">
-        <v>51.467799999999997</v>
-      </c>
-      <c r="H13">
-        <v>58.439700000000002</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14">
-        <v>20210910</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1765.748169</v>
-      </c>
-      <c r="E14">
-        <v>0.462729</v>
-      </c>
-      <c r="F14">
-        <v>42.166600000000003</v>
-      </c>
-      <c r="G14">
-        <v>47.654800000000002</v>
-      </c>
-      <c r="H14">
-        <v>54.738399999999999</v>
-      </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>20210910</v>
       </c>
@@ -1307,7 +1311,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D15" s="4">
         <v>1765.748169</v>
@@ -1325,26 +1329,23 @@
         <v>54.738399999999999</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
-        <v>20210912</v>
+        <v>20210910</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16">
+        <v>19</v>
+      </c>
+      <c r="D16" s="4">
         <v>1765.748169</v>
       </c>
       <c r="E16">
@@ -1360,16 +1361,13 @@
         <v>54.738399999999999</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J16" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>20210912</v>
       </c>
@@ -1377,69 +1375,63 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17">
+        <v>19</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1765.748169</v>
+      </c>
+      <c r="E17">
+        <v>0.462729</v>
+      </c>
+      <c r="F17">
+        <v>42.166600000000003</v>
+      </c>
+      <c r="G17">
+        <v>47.654800000000002</v>
+      </c>
+      <c r="H17">
+        <v>54.738399999999999</v>
+      </c>
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>20210912</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
         <v>2435.3916020000001</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>0.38500400000000001</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F18" s="10">
         <v>28.637499999999999</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>46.0274</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>53.9407</v>
       </c>
-      <c r="I17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18">
-        <v>20210913</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18">
-        <v>2477.336182</v>
-      </c>
-      <c r="E18">
-        <v>0.35715200000000003</v>
-      </c>
-      <c r="F18" s="10">
-        <v>23.994900000000001</v>
-      </c>
-      <c r="G18">
-        <v>44.639400000000002</v>
-      </c>
-      <c r="H18">
-        <v>53.9726</v>
-      </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J18" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>20210913</v>
       </c>
@@ -1447,34 +1439,31 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="10">
-        <v>3388.1567380000001</v>
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>2477.336182</v>
       </c>
       <c r="E19">
-        <v>0.34553600000000001</v>
+        <v>0.35715200000000003</v>
       </c>
       <c r="F19" s="10">
-        <v>23.005700000000001</v>
+        <v>23.994900000000001</v>
       </c>
       <c r="G19">
-        <v>43.793900000000001</v>
+        <v>44.639400000000002</v>
       </c>
       <c r="H19">
-        <v>52.265500000000003</v>
+        <v>53.9726</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>20210913</v>
       </c>
@@ -1482,98 +1471,89 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="D20" s="10">
+        <v>3388.1567380000001</v>
+      </c>
+      <c r="E20">
+        <v>0.34553600000000001</v>
+      </c>
+      <c r="F20" s="10">
+        <v>23.005700000000001</v>
+      </c>
+      <c r="G20">
+        <v>43.793900000000001</v>
+      </c>
+      <c r="H20">
+        <v>52.265500000000003</v>
+      </c>
+      <c r="I20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>20210913</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
         <v>2259.569336</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>0.456652</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>41.320999999999998</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>47.144199999999998</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>54.259700000000002</v>
       </c>
-      <c r="I20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="I21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21">
+    <row r="22" spans="1:10">
+      <c r="A22">
         <v>20210914</v>
       </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21">
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22">
         <v>2240.9482419999999</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E22" s="5">
         <v>0.493531</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F22" s="4">
         <v>44.5916</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>51.276299999999999</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <v>58.344000000000001</v>
       </c>
-      <c r="I21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22">
-        <v>20210916</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22">
-        <v>2180.8237300000001</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0.49307400000000001</v>
-      </c>
-      <c r="F22" s="4">
-        <v>44.479900000000001</v>
-      </c>
-      <c r="G22">
-        <v>51.324199999999998</v>
-      </c>
-      <c r="H22">
-        <v>58.232300000000002</v>
-      </c>
       <c r="I22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>20210916</v>
       </c>
@@ -1581,34 +1561,299 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="5">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>2180.8237300000001</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.49307400000000001</v>
+      </c>
+      <c r="F23" s="4">
+        <v>44.479900000000001</v>
+      </c>
+      <c r="G23">
+        <v>51.324199999999998</v>
+      </c>
+      <c r="H23">
+        <v>58.232300000000002</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>20210916</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="5">
         <v>2077.5192870000001</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>0.45376499999999997</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>40.778599999999997</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>47.064500000000002</v>
       </c>
-      <c r="H23">
+      <c r="H24">
         <v>54.291600000000003</v>
       </c>
-      <c r="I23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="I24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>20210917</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1765.748169</v>
+      </c>
+      <c r="E25">
+        <v>0.462729</v>
+      </c>
+      <c r="F25">
+        <v>42.166600000000003</v>
+      </c>
+      <c r="G25">
+        <v>47.654800000000002</v>
+      </c>
+      <c r="H25">
+        <v>54.738399999999999</v>
+      </c>
+      <c r="I25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>20210917</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26">
+        <v>2112.8481449999999</v>
+      </c>
+      <c r="E26">
+        <v>0.45388800000000001</v>
+      </c>
+      <c r="F26">
+        <v>40.714700000000001</v>
+      </c>
+      <c r="G26">
+        <v>47.271900000000002</v>
+      </c>
+      <c r="H26">
+        <v>54.499000000000002</v>
+      </c>
+      <c r="I26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>20210917</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1649.350342</v>
+      </c>
+      <c r="E27">
+        <v>0.46444200000000002</v>
+      </c>
+      <c r="F27">
+        <v>42.246299999999998</v>
+      </c>
+      <c r="G27">
+        <v>47.782400000000003</v>
+      </c>
+      <c r="H27">
+        <v>54.993600000000001</v>
+      </c>
+      <c r="I27" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>20210917</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="10">
+        <v>7023.2919920000004</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0.11763899999999999</v>
+      </c>
+      <c r="F28" s="10">
+        <v>7.6101000000000001</v>
+      </c>
+      <c r="G28" s="10">
+        <v>13.864100000000001</v>
+      </c>
+      <c r="H28" s="10">
+        <v>19.671299999999999</v>
+      </c>
+      <c r="I28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>20210920</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>2087.7055660000001</v>
+      </c>
+      <c r="E29">
+        <v>0.49223299999999998</v>
+      </c>
+      <c r="F29">
+        <v>44.1449</v>
+      </c>
+      <c r="G29">
+        <v>51.483699999999999</v>
+      </c>
+      <c r="H29" s="5">
+        <v>58.519500000000001</v>
+      </c>
+      <c r="I29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>20210920</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30">
+        <v>2180.8237300000001</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.49307400000000001</v>
+      </c>
+      <c r="F30" s="4">
+        <v>44.479900000000001</v>
+      </c>
+      <c r="G30">
+        <v>51.324199999999998</v>
+      </c>
+      <c r="H30">
+        <v>58.232300000000002</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>20210920</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="10">
+        <v>6948.4189450000003</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.12556700000000001</v>
+      </c>
+      <c r="F31" s="10">
+        <v>8.6790000000000003</v>
+      </c>
+      <c r="G31" s="10">
+        <v>14.247</v>
+      </c>
+      <c r="H31" s="10">
+        <v>19.783000000000001</v>
+      </c>
+      <c r="I31" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>20210920</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:K13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:J14">
     <sortCondition descending="1" ref="H1"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="D32:H32"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/实验室/数据合集/QuatE改.xlsx
+++ b/实验室/数据合集/QuatE改.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实验室论文\实验室\数据合集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A028025-3953-436C-B915-30E29EC386BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD31172-706F-47CE-8FB8-A996EE8A4BA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="870" windowWidth="20265" windowHeight="13080" activeTab="1" xr2:uid="{AB23B43C-DD56-4081-B26D-8F17546BFFD7}"/>
+    <workbookView xWindow="30705" yWindow="2115" windowWidth="20265" windowHeight="13080" activeTab="1" xr2:uid="{AB23B43C-DD56-4081-B26D-8F17546BFFD7}"/>
   </bookViews>
   <sheets>
     <sheet name="FB15k-237" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="67">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>QuatMSE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>将QuatRE中的Vr,1和Vr,2改成Vr</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -202,6 +198,97 @@
   <si>
     <t>程序中断结果未知，验证集hit@10=0.21</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuatRE改进1-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuatRE改进1-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuatRE改进2-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuatRE改进2-1变体1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuatRE改进2-1变体2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuatRE改进2-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuatRE改进2-2变体1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuatRE改进2-2变体2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuatRE改进2-3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuatRE改进2-4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuatRE改进2-4变体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuatRE改进3-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuatRE改进3-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>g1(t,r)(r,h)；修复了一些bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuatRE改进1-3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序中断结果未知，验证集hit@10=0.438860</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将QuatRE中的Vr,1改成Vt,1和Vr,2改成Vh,1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuatRE改进1-4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序中断结果未知，验证集hit@10=0.194298</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将QuatRE中的Vr,1改成Vh,1和Vr,2改成Vt,1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuatRE改进2-2变体3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>g2(t,r)(r,h)；去除归一化</t>
   </si>
 </sst>
 </file>
@@ -319,7 +406,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -343,7 +430,13 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -887,7 +980,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2">
         <v>172</v>
@@ -916,21 +1009,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED581C6D-DD0E-45F8-833A-F098410ECFD2}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
     <col min="9" max="9" width="47.25" customWidth="1"/>
     <col min="10" max="10" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="25.5" customHeight="1">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="25.5" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -961,8 +1055,11 @@
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -985,7 +1082,7 @@
         <v>58.2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1008,7 +1105,7 @@
         <v>58.2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -1031,7 +1128,7 @@
         <v>58.4</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1054,7 +1151,7 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -1077,12 +1174,12 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>2860</v>
@@ -1100,7 +1197,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>20210811</v>
       </c>
@@ -1129,7 +1226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>20210830</v>
       </c>
@@ -1158,7 +1255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>20210901</v>
       </c>
@@ -1187,7 +1284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>20210902</v>
       </c>
@@ -1213,39 +1310,39 @@
         <v>58.232300000000002</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
-        <v>20210909</v>
+        <v>20210920</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>2122.335693</v>
+        <v>2180.8237300000001</v>
       </c>
       <c r="E12" s="5">
-        <v>0.493336</v>
-      </c>
-      <c r="F12" s="5">
-        <v>44.288499999999999</v>
-      </c>
-      <c r="G12" s="5">
-        <v>51.515599999999999</v>
-      </c>
-      <c r="H12" s="5">
-        <v>58.567300000000003</v>
+        <v>0.49307400000000001</v>
+      </c>
+      <c r="F12" s="4">
+        <v>44.479900000000001</v>
+      </c>
+      <c r="G12">
+        <v>51.324199999999998</v>
+      </c>
+      <c r="H12">
+        <v>58.232300000000002</v>
       </c>
       <c r="I12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>20210904</v>
       </c>
@@ -1271,588 +1368,728 @@
         <v>59.1417</v>
       </c>
       <c r="I13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>20210914</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>2240.9482419999999</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.493531</v>
+      </c>
+      <c r="F14" s="4">
+        <v>44.5916</v>
+      </c>
+      <c r="G14">
+        <v>51.276299999999999</v>
+      </c>
+      <c r="H14">
+        <v>58.344000000000001</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>20210916</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>2180.8237300000001</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.49307400000000001</v>
+      </c>
+      <c r="F15" s="4">
+        <v>44.479900000000001</v>
+      </c>
+      <c r="G15">
+        <v>51.324199999999998</v>
+      </c>
+      <c r="H15">
+        <v>58.232300000000002</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>20210920</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>2087.7055660000001</v>
+      </c>
+      <c r="E16">
+        <v>0.49223299999999998</v>
+      </c>
+      <c r="F16">
+        <v>44.1449</v>
+      </c>
+      <c r="G16">
+        <v>51.483699999999999</v>
+      </c>
+      <c r="H16" s="5">
+        <v>58.519500000000001</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>20210909</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2054.8454590000001</v>
+      </c>
+      <c r="E17">
+        <v>0.49188199999999999</v>
+      </c>
+      <c r="F17">
+        <v>44.065100000000001</v>
+      </c>
+      <c r="G17">
+        <v>51.467799999999997</v>
+      </c>
+      <c r="H17">
+        <v>58.439700000000002</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>20210909</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <v>2122.335693</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.493336</v>
+      </c>
+      <c r="F18" s="5">
+        <v>44.288499999999999</v>
+      </c>
+      <c r="G18" s="5">
+        <v>51.515599999999999</v>
+      </c>
+      <c r="H18" s="5">
+        <v>58.567300000000003</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>20210924</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>20210924</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>20210910</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1765.748169</v>
+      </c>
+      <c r="E21">
+        <v>0.462729</v>
+      </c>
+      <c r="F21">
+        <v>42.166600000000003</v>
+      </c>
+      <c r="G21">
+        <v>47.654800000000002</v>
+      </c>
+      <c r="H21">
+        <v>54.738399999999999</v>
+      </c>
+      <c r="I21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
-        <v>20210909</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="5">
-        <v>2054.8454590000001</v>
-      </c>
-      <c r="E14">
-        <v>0.49188199999999999</v>
-      </c>
-      <c r="F14">
-        <v>44.065100000000001</v>
-      </c>
-      <c r="G14">
-        <v>51.467799999999997</v>
-      </c>
-      <c r="H14">
-        <v>58.439700000000002</v>
-      </c>
-      <c r="I14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>20210917</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1765.748169</v>
+      </c>
+      <c r="E22">
+        <v>0.462729</v>
+      </c>
+      <c r="F22">
+        <v>42.166600000000003</v>
+      </c>
+      <c r="G22">
+        <v>47.654800000000002</v>
+      </c>
+      <c r="H22">
+        <v>54.738399999999999</v>
+      </c>
+      <c r="I22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>20210917</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1649.350342</v>
+      </c>
+      <c r="E23">
+        <v>0.46444200000000002</v>
+      </c>
+      <c r="F23">
+        <v>42.246299999999998</v>
+      </c>
+      <c r="G23">
+        <v>47.782400000000003</v>
+      </c>
+      <c r="H23">
+        <v>54.993600000000001</v>
+      </c>
+      <c r="I23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>20210923</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1649.03125</v>
+      </c>
+      <c r="E24">
+        <v>0.46413399999999999</v>
+      </c>
+      <c r="F24">
+        <v>42.150599999999997</v>
+      </c>
+      <c r="G24">
+        <v>47.686700000000002</v>
+      </c>
+      <c r="H24">
+        <v>55.296700000000001</v>
+      </c>
+      <c r="I24" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>20210923</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1804.8496090000001</v>
+      </c>
+      <c r="E25">
+        <v>0.46095399999999997</v>
+      </c>
+      <c r="F25">
+        <v>41.911299999999997</v>
+      </c>
+      <c r="G25">
+        <v>47.750500000000002</v>
+      </c>
+      <c r="H25">
+        <v>54.132100000000001</v>
+      </c>
+      <c r="I25" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
         <v>20210910</v>
       </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="4">
         <v>1765.748169</v>
       </c>
-      <c r="E15">
+      <c r="E26">
         <v>0.462729</v>
       </c>
-      <c r="F15">
+      <c r="F26">
         <v>42.166600000000003</v>
       </c>
-      <c r="G15">
+      <c r="G26">
         <v>47.654800000000002</v>
       </c>
-      <c r="H15">
+      <c r="H26">
         <v>54.738399999999999</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I26" t="s">
         <v>24</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>20210912</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1765.748169</v>
+      </c>
+      <c r="E27">
+        <v>0.462729</v>
+      </c>
+      <c r="F27">
+        <v>42.166600000000003</v>
+      </c>
+      <c r="G27">
+        <v>47.654800000000002</v>
+      </c>
+      <c r="H27">
+        <v>54.738399999999999</v>
+      </c>
+      <c r="I27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
-        <v>20210910</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1765.748169</v>
-      </c>
-      <c r="E16">
-        <v>0.462729</v>
-      </c>
-      <c r="F16">
-        <v>42.166600000000003</v>
-      </c>
-      <c r="G16">
-        <v>47.654800000000002</v>
-      </c>
-      <c r="H16">
-        <v>54.738399999999999</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J27" t="s">
         <v>25</v>
       </c>
-      <c r="J16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17">
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
         <v>20210912</v>
       </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1765.748169</v>
-      </c>
-      <c r="E17">
-        <v>0.462729</v>
-      </c>
-      <c r="F17">
-        <v>42.166600000000003</v>
-      </c>
-      <c r="G17">
-        <v>47.654800000000002</v>
-      </c>
-      <c r="H17">
-        <v>54.738399999999999</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28">
+        <v>2435.3916020000001</v>
+      </c>
+      <c r="E28">
+        <v>0.38500400000000001</v>
+      </c>
+      <c r="F28" s="10">
+        <v>28.637499999999999</v>
+      </c>
+      <c r="G28">
+        <v>46.0274</v>
+      </c>
+      <c r="H28">
+        <v>53.9407</v>
+      </c>
+      <c r="I28" t="s">
         <v>27</v>
       </c>
-      <c r="J17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18">
-        <v>20210912</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18">
-        <v>2435.3916020000001</v>
-      </c>
-      <c r="E18">
-        <v>0.38500400000000001</v>
-      </c>
-      <c r="F18" s="10">
-        <v>28.637499999999999</v>
-      </c>
-      <c r="G18">
-        <v>46.0274</v>
-      </c>
-      <c r="H18">
-        <v>53.9407</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J28" t="s">
         <v>28</v>
       </c>
-      <c r="J18" t="s">
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>20210913</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>2477.336182</v>
+      </c>
+      <c r="E29">
+        <v>0.35715200000000003</v>
+      </c>
+      <c r="F29" s="10">
+        <v>23.994900000000001</v>
+      </c>
+      <c r="G29">
+        <v>44.639400000000002</v>
+      </c>
+      <c r="H29">
+        <v>53.9726</v>
+      </c>
+      <c r="I29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19">
+      <c r="J29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
         <v>20210913</v>
       </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19">
-        <v>2477.336182</v>
-      </c>
-      <c r="E19">
-        <v>0.35715200000000003</v>
-      </c>
-      <c r="F19" s="10">
-        <v>23.994900000000001</v>
-      </c>
-      <c r="G19">
-        <v>44.639400000000002</v>
-      </c>
-      <c r="H19">
-        <v>53.9726</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="10">
+        <v>3388.1567380000001</v>
+      </c>
+      <c r="E30">
+        <v>0.34553600000000001</v>
+      </c>
+      <c r="F30" s="10">
+        <v>23.005700000000001</v>
+      </c>
+      <c r="G30">
+        <v>43.793900000000001</v>
+      </c>
+      <c r="H30">
+        <v>52.265500000000003</v>
+      </c>
+      <c r="I30" t="s">
         <v>30</v>
       </c>
-      <c r="J19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20">
+      <c r="J30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>20210924</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31">
+        <v>2449.5895999999998</v>
+      </c>
+      <c r="E31">
+        <v>0.38935599999999998</v>
+      </c>
+      <c r="F31" s="10">
+        <v>29.132100000000001</v>
+      </c>
+      <c r="G31">
+        <v>46.506100000000004</v>
+      </c>
+      <c r="H31">
+        <v>54.2119</v>
+      </c>
+      <c r="I31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
         <v>20210913</v>
       </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="10">
-        <v>3388.1567380000001</v>
-      </c>
-      <c r="E20">
-        <v>0.34553600000000001</v>
-      </c>
-      <c r="F20" s="10">
-        <v>23.005700000000001</v>
-      </c>
-      <c r="G20">
-        <v>43.793900000000001</v>
-      </c>
-      <c r="H20">
-        <v>52.265500000000003</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32">
+        <v>2259.569336</v>
+      </c>
+      <c r="E32">
+        <v>0.456652</v>
+      </c>
+      <c r="F32">
+        <v>41.320999999999998</v>
+      </c>
+      <c r="G32">
+        <v>47.144199999999998</v>
+      </c>
+      <c r="H32">
+        <v>54.259700000000002</v>
+      </c>
+      <c r="I32" t="s">
         <v>31</v>
       </c>
-      <c r="J20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21">
-        <v>20210913</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21">
-        <v>2259.569336</v>
-      </c>
-      <c r="E21">
-        <v>0.456652</v>
-      </c>
-      <c r="F21">
-        <v>41.320999999999998</v>
-      </c>
-      <c r="G21">
-        <v>47.144199999999998</v>
-      </c>
-      <c r="H21">
-        <v>54.259700000000002</v>
-      </c>
-      <c r="I21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22">
-        <v>20210914</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22">
-        <v>2240.9482419999999</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0.493531</v>
-      </c>
-      <c r="F22" s="4">
-        <v>44.5916</v>
-      </c>
-      <c r="G22">
-        <v>51.276299999999999</v>
-      </c>
-      <c r="H22">
-        <v>58.344000000000001</v>
-      </c>
-      <c r="I22" t="s">
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>20210916</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2077.5192870000001</v>
+      </c>
+      <c r="E33">
+        <v>0.45376499999999997</v>
+      </c>
+      <c r="F33">
+        <v>40.778599999999997</v>
+      </c>
+      <c r="G33">
+        <v>47.064500000000002</v>
+      </c>
+      <c r="H33">
+        <v>54.291600000000003</v>
+      </c>
+      <c r="I33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23">
-        <v>20210916</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23">
-        <v>2180.8237300000001</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0.49307400000000001</v>
-      </c>
-      <c r="F23" s="4">
-        <v>44.479900000000001</v>
-      </c>
-      <c r="G23">
-        <v>51.324199999999998</v>
-      </c>
-      <c r="H23">
-        <v>58.232300000000002</v>
-      </c>
-      <c r="I23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24">
-        <v>20210916</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="5">
-        <v>2077.5192870000001</v>
-      </c>
-      <c r="E24">
-        <v>0.45376499999999997</v>
-      </c>
-      <c r="F24">
-        <v>40.778599999999997</v>
-      </c>
-      <c r="G24">
-        <v>47.064500000000002</v>
-      </c>
-      <c r="H24">
-        <v>54.291600000000003</v>
-      </c>
-      <c r="I24" t="s">
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>20210917</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34">
+        <v>2112.8481449999999</v>
+      </c>
+      <c r="E34">
+        <v>0.45388800000000001</v>
+      </c>
+      <c r="F34">
+        <v>40.714700000000001</v>
+      </c>
+      <c r="G34">
+        <v>47.271900000000002</v>
+      </c>
+      <c r="H34">
+        <v>54.499000000000002</v>
+      </c>
+      <c r="I34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25">
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>20210920</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="10">
+        <v>6948.4189450000003</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0.12556700000000001</v>
+      </c>
+      <c r="F35" s="10">
+        <v>8.6790000000000003</v>
+      </c>
+      <c r="G35" s="10">
+        <v>14.247</v>
+      </c>
+      <c r="H35" s="10">
+        <v>19.783000000000001</v>
+      </c>
+      <c r="I35" t="s">
+        <v>42</v>
+      </c>
+      <c r="J35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>20210920</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
         <v>20210917</v>
       </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1765.748169</v>
-      </c>
-      <c r="E25">
-        <v>0.462729</v>
-      </c>
-      <c r="F25">
-        <v>42.166600000000003</v>
-      </c>
-      <c r="G25">
-        <v>47.654800000000002</v>
-      </c>
-      <c r="H25">
-        <v>54.738399999999999</v>
-      </c>
-      <c r="I25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26">
-        <v>20210917</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26">
-        <v>2112.8481449999999</v>
-      </c>
-      <c r="E26">
-        <v>0.45388800000000001</v>
-      </c>
-      <c r="F26">
-        <v>40.714700000000001</v>
-      </c>
-      <c r="G26">
-        <v>47.271900000000002</v>
-      </c>
-      <c r="H26">
-        <v>54.499000000000002</v>
-      </c>
-      <c r="I26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27">
-        <v>20210917</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1649.350342</v>
-      </c>
-      <c r="E27">
-        <v>0.46444200000000002</v>
-      </c>
-      <c r="F27">
-        <v>42.246299999999998</v>
-      </c>
-      <c r="G27">
-        <v>47.782400000000003</v>
-      </c>
-      <c r="H27">
-        <v>54.993600000000001</v>
-      </c>
-      <c r="I27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28">
-        <v>20210917</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="10">
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="10">
         <v>7023.2919920000004</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E37" s="10">
         <v>0.11763899999999999</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F37" s="10">
         <v>7.6101000000000001</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G37" s="10">
         <v>13.864100000000001</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H37" s="10">
         <v>19.671299999999999</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I37" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" t="s">
         <v>40</v>
       </c>
-      <c r="J28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29">
-        <v>20210920</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29">
-        <v>2087.7055660000001</v>
-      </c>
-      <c r="E29">
-        <v>0.49223299999999998</v>
-      </c>
-      <c r="F29">
-        <v>44.1449</v>
-      </c>
-      <c r="G29">
-        <v>51.483699999999999</v>
-      </c>
-      <c r="H29" s="5">
-        <v>58.519500000000001</v>
-      </c>
-      <c r="I29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30">
-        <v>20210920</v>
-      </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30">
-        <v>2180.8237300000001</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0.49307400000000001</v>
-      </c>
-      <c r="F30" s="4">
-        <v>44.479900000000001</v>
-      </c>
-      <c r="G30">
-        <v>51.324199999999998</v>
-      </c>
-      <c r="H30">
-        <v>58.232300000000002</v>
-      </c>
-      <c r="I30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31">
-        <v>20210920</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="10">
-        <v>6948.4189450000003</v>
-      </c>
-      <c r="E31" s="10">
-        <v>0.12556700000000001</v>
-      </c>
-      <c r="F31" s="10">
-        <v>8.6790000000000003</v>
-      </c>
-      <c r="G31" s="10">
-        <v>14.247</v>
-      </c>
-      <c r="H31" s="10">
-        <v>19.783000000000001</v>
-      </c>
-      <c r="I31" t="s">
-        <v>43</v>
-      </c>
-      <c r="J31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32">
-        <v>20210920</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J32" t="s">
-        <v>41</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:J14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:J18">
     <sortCondition descending="1" ref="H1"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="D32:H32"/>
+  <mergeCells count="3">
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D20:H20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
